--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1110.76571607554</v>
+        <v>1204.325392207624</v>
       </c>
       <c r="AB2" t="n">
-        <v>1519.798656259451</v>
+        <v>1647.811132704971</v>
       </c>
       <c r="AC2" t="n">
-        <v>1374.75120555686</v>
+        <v>1490.546350917058</v>
       </c>
       <c r="AD2" t="n">
-        <v>1110765.71607554</v>
+        <v>1204325.392207623</v>
       </c>
       <c r="AE2" t="n">
-        <v>1519798.656259452</v>
+        <v>1647811.132704971</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.276500411426396e-06</v>
+        <v>2.157987280617418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.87239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1374751.205556859</v>
+        <v>1490546.350917058</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.3822046579054</v>
+        <v>590.3693743347889</v>
       </c>
       <c r="AB3" t="n">
-        <v>736.6382841595023</v>
+        <v>807.7694232234725</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.3345601976439</v>
+        <v>730.6770431825295</v>
       </c>
       <c r="AD3" t="n">
-        <v>538382.2046579054</v>
+        <v>590369.3743347889</v>
       </c>
       <c r="AE3" t="n">
-        <v>736638.2841595022</v>
+        <v>807769.4232234724</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.003728447163684e-06</v>
+        <v>3.387402357323756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.11284722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>666334.5601976439</v>
+        <v>730677.0431825295</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.0363349626538</v>
+        <v>475.0234151309864</v>
       </c>
       <c r="AB4" t="n">
-        <v>578.8169765418309</v>
+        <v>649.9479931362526</v>
       </c>
       <c r="AC4" t="n">
-        <v>523.5754966754065</v>
+        <v>587.9178688790654</v>
       </c>
       <c r="AD4" t="n">
-        <v>423036.3349626538</v>
+        <v>475023.4151309864</v>
       </c>
       <c r="AE4" t="n">
-        <v>578816.9765418308</v>
+        <v>649947.9931362526</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.279158246293867e-06</v>
+        <v>3.85303009853363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.891059027777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>523575.4966754065</v>
+        <v>587917.8688790654</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.1785599160411</v>
+        <v>414.7512453883438</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.5993691532581</v>
+        <v>567.4809514739044</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.8684819919858</v>
+        <v>513.3213659297519</v>
       </c>
       <c r="AD5" t="n">
-        <v>373178.5599160411</v>
+        <v>414751.2453883438</v>
       </c>
       <c r="AE5" t="n">
-        <v>510599.369153258</v>
+        <v>567480.9514739044</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.436853477050097e-06</v>
+        <v>4.119621710365316e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.313802083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>461868.4819919858</v>
+        <v>513321.3659297519</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>349.8958279003044</v>
+        <v>391.4685133726072</v>
       </c>
       <c r="AB6" t="n">
-        <v>478.7429080476841</v>
+        <v>535.6244903683304</v>
       </c>
       <c r="AC6" t="n">
-        <v>433.0523568235038</v>
+        <v>484.5052407612699</v>
       </c>
       <c r="AD6" t="n">
-        <v>349895.8279003044</v>
+        <v>391468.5133726072</v>
       </c>
       <c r="AE6" t="n">
-        <v>478742.9080476841</v>
+        <v>535624.4903683304</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505477511748634e-06</v>
+        <v>4.235634045887098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>433052.3568235039</v>
+        <v>484505.2407612699</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>351.1683559423266</v>
+        <v>392.7410414146293</v>
       </c>
       <c r="AB7" t="n">
-        <v>480.4840370547539</v>
+        <v>537.3656193754001</v>
       </c>
       <c r="AC7" t="n">
-        <v>434.6273149218288</v>
+        <v>486.0801988595948</v>
       </c>
       <c r="AD7" t="n">
-        <v>351168.3559423266</v>
+        <v>392741.0414146293</v>
       </c>
       <c r="AE7" t="n">
-        <v>480484.0370547539</v>
+        <v>537365.6193754001</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.505477511748634e-06</v>
+        <v>4.235634045887098e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>434627.3149218288</v>
+        <v>486080.1988595948</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>776.1897445199303</v>
+        <v>846.6531272263591</v>
       </c>
       <c r="AB2" t="n">
-        <v>1062.017051526943</v>
+        <v>1158.428160370927</v>
       </c>
       <c r="AC2" t="n">
-        <v>960.6596346795038</v>
+        <v>1047.86940260926</v>
       </c>
       <c r="AD2" t="n">
-        <v>776189.7445199303</v>
+        <v>846653.1272263591</v>
       </c>
       <c r="AE2" t="n">
-        <v>1062017.051526943</v>
+        <v>1158428.160370927</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570582596202629e-06</v>
+        <v>2.719920816613166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>960659.6346795039</v>
+        <v>1047869.40260926</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>425.3034369264413</v>
+        <v>475.5856839451498</v>
       </c>
       <c r="AB3" t="n">
-        <v>581.9189254661646</v>
+        <v>650.7173141333404</v>
       </c>
       <c r="AC3" t="n">
-        <v>526.3813999480145</v>
+        <v>588.6137669599401</v>
       </c>
       <c r="AD3" t="n">
-        <v>425303.4369264413</v>
+        <v>475585.6839451498</v>
       </c>
       <c r="AE3" t="n">
-        <v>581918.9254661646</v>
+        <v>650717.3141333405</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.251319705730711e-06</v>
+        <v>3.898815221353932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.309895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>526381.3999480145</v>
+        <v>588613.7669599401</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>341.1407038606594</v>
+        <v>381.4177238900793</v>
       </c>
       <c r="AB4" t="n">
-        <v>466.7637610878292</v>
+        <v>521.8725567887981</v>
       </c>
       <c r="AC4" t="n">
-        <v>422.2164828366591</v>
+        <v>472.0657724216081</v>
       </c>
       <c r="AD4" t="n">
-        <v>341140.7038606594</v>
+        <v>381417.7238900793</v>
       </c>
       <c r="AE4" t="n">
-        <v>466763.7610878292</v>
+        <v>521872.5567887981</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.512584444844425e-06</v>
+        <v>4.351271147123479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.342013888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>422216.4828366591</v>
+        <v>472065.7724216081</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>325.8645464190519</v>
+        <v>366.1415664484718</v>
       </c>
       <c r="AB5" t="n">
-        <v>445.8622485397195</v>
+        <v>500.9710442406886</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.309781310684</v>
+        <v>453.1590708956331</v>
       </c>
       <c r="AD5" t="n">
-        <v>325864.5464190519</v>
+        <v>366141.5664484719</v>
       </c>
       <c r="AE5" t="n">
-        <v>445862.2485397196</v>
+        <v>500971.0442406886</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.565320321944642e-06</v>
+        <v>4.442598664857368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.170572916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>403309.781310684</v>
+        <v>453159.0708956331</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.2021666534812</v>
+        <v>333.6637186128937</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.6451160495141</v>
+        <v>456.5334200105275</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.8354769037525</v>
+        <v>412.9625111534012</v>
       </c>
       <c r="AD2" t="n">
-        <v>297202.1666534812</v>
+        <v>333663.7186128937</v>
       </c>
       <c r="AE2" t="n">
-        <v>406645.116049514</v>
+        <v>456533.4200105275</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562260545736205e-06</v>
+        <v>4.848348324661139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>367835.4769037525</v>
+        <v>412962.5111534012</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.1799446545999</v>
+        <v>320.6714318636052</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.5133403587787</v>
+        <v>438.7568001009125</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.5794355947283</v>
+        <v>396.8824668983171</v>
       </c>
       <c r="AD3" t="n">
-        <v>275179.9446545999</v>
+        <v>320671.4318636052</v>
       </c>
       <c r="AE3" t="n">
-        <v>376513.3403587788</v>
+        <v>438756.8001009125</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.637919118256891e-06</v>
+        <v>4.991510624817281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>340579.4355947283</v>
+        <v>396882.4668983172</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.6145140730482</v>
+        <v>478.0124166218899</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.1857755263391</v>
+        <v>654.037676841546</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.9547120375341</v>
+        <v>591.6172389114329</v>
       </c>
       <c r="AD2" t="n">
-        <v>430614.5140730481</v>
+        <v>478012.4166218899</v>
       </c>
       <c r="AE2" t="n">
-        <v>589185.7755263391</v>
+        <v>654037.6768415461</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.149855587482978e-06</v>
+        <v>3.916569985979584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>532954.7120375341</v>
+        <v>591617.2389114329</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.475681221701</v>
+        <v>328.3769529915702</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.4416419301587</v>
+        <v>449.2998340517945</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.5103694371915</v>
+        <v>406.419288486168</v>
       </c>
       <c r="AD3" t="n">
-        <v>290475.681221701</v>
+        <v>328376.9529915702</v>
       </c>
       <c r="AE3" t="n">
-        <v>397441.6419301587</v>
+        <v>449299.8340517945</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.639607351932844e-06</v>
+        <v>4.808791339075504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>359510.3694371915</v>
+        <v>406419.288486168</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.9716377567603</v>
+        <v>329.8729095266296</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.4884756583715</v>
+        <v>451.3466677800072</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.3618562271327</v>
+        <v>408.2707752761094</v>
       </c>
       <c r="AD4" t="n">
-        <v>291971.6377567603</v>
+        <v>329872.9095266296</v>
       </c>
       <c r="AE4" t="n">
-        <v>399488.4756583715</v>
+        <v>451346.6677800072</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639504246298223e-06</v>
+        <v>4.808603503001169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>361361.8562271327</v>
+        <v>408270.7752761093</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.471031069854</v>
+        <v>318.3136887045983</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.5433735170693</v>
+        <v>435.5308318944723</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.7020410270345</v>
+        <v>393.9643805698248</v>
       </c>
       <c r="AD2" t="n">
-        <v>274471.0310698539</v>
+        <v>318313.6887045983</v>
       </c>
       <c r="AE2" t="n">
-        <v>375543.3735170693</v>
+        <v>435530.8318944723</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57706060326047e-06</v>
+        <v>5.050208452258937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.424913194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>339702.0410270345</v>
+        <v>393964.3805698248</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>842.1569936609289</v>
+        <v>923.3919638719144</v>
       </c>
       <c r="AB2" t="n">
-        <v>1152.276352071292</v>
+        <v>1263.425622147914</v>
       </c>
       <c r="AC2" t="n">
-        <v>1042.304714259625</v>
+        <v>1142.846053999114</v>
       </c>
       <c r="AD2" t="n">
-        <v>842156.9936609289</v>
+        <v>923391.9638719144</v>
       </c>
       <c r="AE2" t="n">
-        <v>1152276.352071292</v>
+        <v>1263425.622147914</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49425731483434e-06</v>
+        <v>2.570841629027069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90190972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1042304.714259625</v>
+        <v>1142846.053999114</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.6967602275598</v>
+        <v>500.404700477048</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.2949465642275</v>
+        <v>684.6757874900162</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.5720604360183</v>
+        <v>619.3312912804714</v>
       </c>
       <c r="AD3" t="n">
-        <v>449696.7602275598</v>
+        <v>500404.7004770481</v>
       </c>
       <c r="AE3" t="n">
-        <v>615294.9465642276</v>
+        <v>684675.7874900162</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.187544466928705e-06</v>
+        <v>3.76362914546055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.496527777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>556572.0604360183</v>
+        <v>619331.2912804714</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.294345931445</v>
+        <v>401.9119205454888</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.3388632850156</v>
+        <v>549.9136207928748</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.1598559820451</v>
+        <v>497.4306366330163</v>
       </c>
       <c r="AD4" t="n">
-        <v>361294.345931445</v>
+        <v>401911.9205454888</v>
       </c>
       <c r="AE4" t="n">
-        <v>494338.8632850156</v>
+        <v>549913.6207928748</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451822504610955e-06</v>
+        <v>4.218314542792158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>447159.8559820451</v>
+        <v>497430.6366330163</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.7194954146696</v>
+        <v>373.3370700287133</v>
       </c>
       <c r="AB5" t="n">
-        <v>455.2414921745298</v>
+        <v>510.816249682389</v>
       </c>
       <c r="AC5" t="n">
-        <v>411.793883096839</v>
+        <v>462.0646637478102</v>
       </c>
       <c r="AD5" t="n">
-        <v>332719.4954146696</v>
+        <v>373337.0700287133</v>
       </c>
       <c r="AE5" t="n">
-        <v>455241.4921745298</v>
+        <v>510816.249682389</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.544860625808763e-06</v>
+        <v>4.378384881874492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.161892361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>411793.883096839</v>
+        <v>462064.6637478102</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.8269996838396</v>
+        <v>373.4445742978833</v>
       </c>
       <c r="AB6" t="n">
-        <v>455.3885842583618</v>
+        <v>510.9633417662209</v>
       </c>
       <c r="AC6" t="n">
-        <v>411.9269369186351</v>
+        <v>462.1977175696063</v>
       </c>
       <c r="AD6" t="n">
-        <v>332826.9996838396</v>
+        <v>373444.5742978833</v>
       </c>
       <c r="AE6" t="n">
-        <v>455388.5842583618</v>
+        <v>510963.3417662209</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.550795156173232e-06</v>
+        <v>4.388595129840648e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.142361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>411926.9369186351</v>
+        <v>462197.7175696063</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1949866962477</v>
+        <v>314.2823641108542</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.0609450762238</v>
+        <v>430.0149957358224</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.6474092654556</v>
+        <v>388.9749680726318</v>
       </c>
       <c r="AD2" t="n">
-        <v>271194.9866962477</v>
+        <v>314282.3641108542</v>
       </c>
       <c r="AE2" t="n">
-        <v>371060.9450762239</v>
+        <v>430014.9957358224</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.511768600797002e-06</v>
+        <v>5.035242989221173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>335647.4092654556</v>
+        <v>388974.9680726318</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.4311941142724</v>
+        <v>639.3167045801622</v>
       </c>
       <c r="AB2" t="n">
-        <v>794.1715666041944</v>
+        <v>874.7413198689995</v>
       </c>
       <c r="AC2" t="n">
-        <v>718.3769469142834</v>
+        <v>791.2572360078548</v>
       </c>
       <c r="AD2" t="n">
-        <v>580431.1941142725</v>
+        <v>639316.7045801622</v>
       </c>
       <c r="AE2" t="n">
-        <v>794171.5666041943</v>
+        <v>874741.3198689995</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.836220526779261e-06</v>
+        <v>3.252082996780898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.76215277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>718376.9469142834</v>
+        <v>791257.2360078548</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.4365726310941</v>
+        <v>391.4224904980973</v>
       </c>
       <c r="AB3" t="n">
-        <v>468.5368259092334</v>
+        <v>535.5615198410401</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.8203288400207</v>
+        <v>484.4482800527244</v>
       </c>
       <c r="AD3" t="n">
-        <v>342436.5726310941</v>
+        <v>391422.4904980973</v>
       </c>
       <c r="AE3" t="n">
-        <v>468536.8259092334</v>
+        <v>535561.5198410401</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47012063276148e-06</v>
+        <v>4.374767187627111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>423820.3288400207</v>
+        <v>484448.2800527245</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.2333464142989</v>
+        <v>347.405102045538</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.7384628595689</v>
+        <v>475.3349870501232</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.4883358779011</v>
+        <v>429.969683022903</v>
       </c>
       <c r="AD4" t="n">
-        <v>308233.3464142989</v>
+        <v>347405.102045538</v>
       </c>
       <c r="AE4" t="n">
-        <v>421738.4628595689</v>
+        <v>475334.9870501232</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.606851990001601e-06</v>
+        <v>4.616928581382636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.283420138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>381488.3358779011</v>
+        <v>429969.683022903</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.4996638488434</v>
+        <v>771.4296648510513</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.8227880589583</v>
+        <v>1055.504100524088</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.2186482863543</v>
+        <v>954.7682705793781</v>
       </c>
       <c r="AD2" t="n">
-        <v>701499.6638488434</v>
+        <v>771429.6648510513</v>
       </c>
       <c r="AE2" t="n">
-        <v>959822.7880589582</v>
+        <v>1055504.100524088</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.656092994295593e-06</v>
+        <v>2.88808157332891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>868218.6482863544</v>
+        <v>954768.270579378</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.743770904226</v>
+        <v>440.7526271880796</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.3153069185739</v>
+        <v>603.0571891523095</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.984863591631</v>
+        <v>545.5022574156933</v>
       </c>
       <c r="AD3" t="n">
-        <v>400743.770904226</v>
+        <v>440752.6271880796</v>
       </c>
       <c r="AE3" t="n">
-        <v>548315.3069185739</v>
+        <v>603057.1891523096</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.322137812902199e-06</v>
+        <v>4.049605578475204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.112413194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>495984.863591631</v>
+        <v>545502.2574156933</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>322.4803418490758</v>
+        <v>362.4038572783578</v>
       </c>
       <c r="AB4" t="n">
-        <v>441.2318305465097</v>
+        <v>495.8569456580476</v>
       </c>
       <c r="AC4" t="n">
-        <v>399.1212839119137</v>
+        <v>448.5330547040369</v>
       </c>
       <c r="AD4" t="n">
-        <v>322480.3418490758</v>
+        <v>362403.8572783578</v>
       </c>
       <c r="AE4" t="n">
-        <v>441231.8305465097</v>
+        <v>495856.9456580476</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.569503601923567e-06</v>
+        <v>4.480989914744585e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.235677083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>399121.2839119137</v>
+        <v>448533.0547040369</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.3405760653249</v>
+        <v>361.2640914946068</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.6723527182641</v>
+        <v>494.297467829802</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.7106404588548</v>
+        <v>447.1224112509781</v>
       </c>
       <c r="AD5" t="n">
-        <v>321340.5760653248</v>
+        <v>361264.0914946068</v>
       </c>
       <c r="AE5" t="n">
-        <v>439672.3527182641</v>
+        <v>494297.467829802</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.573891248949961e-06</v>
+        <v>4.488641588032769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.220486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>397710.6404588548</v>
+        <v>447122.4112509781</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1020.440404080988</v>
+        <v>1092.802470856484</v>
       </c>
       <c r="AB2" t="n">
-        <v>1396.211579516978</v>
+        <v>1495.220551668291</v>
       </c>
       <c r="AC2" t="n">
-        <v>1262.959105963137</v>
+        <v>1352.518800772294</v>
       </c>
       <c r="AD2" t="n">
-        <v>1020440.404080988</v>
+        <v>1092802.470856484</v>
       </c>
       <c r="AE2" t="n">
-        <v>1396211.579516978</v>
+        <v>1495220.551668291</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.345619167050202e-06</v>
+        <v>2.287463401219756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.17795138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1262959.105963137</v>
+        <v>1352518.800772294</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>499.7407928169145</v>
+        <v>551.4279194361613</v>
       </c>
       <c r="AB3" t="n">
-        <v>683.7673997398826</v>
+        <v>754.4880066554286</v>
       </c>
       <c r="AC3" t="n">
-        <v>618.5095987822804</v>
+        <v>682.480730230802</v>
       </c>
       <c r="AD3" t="n">
-        <v>499740.7928169145</v>
+        <v>551427.9194361613</v>
       </c>
       <c r="AE3" t="n">
-        <v>683767.3997398827</v>
+        <v>754488.0066554287</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.066049627518051e-06</v>
+        <v>3.512147436493027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.884982638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>618509.5987822803</v>
+        <v>682480.730230802</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.5135471817395</v>
+        <v>453.1153329464147</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.3685487816007</v>
+        <v>619.972388574949</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.9375855294848</v>
+        <v>560.8030939460676</v>
       </c>
       <c r="AD4" t="n">
-        <v>401513.5471817395</v>
+        <v>453115.3329464147</v>
       </c>
       <c r="AE4" t="n">
-        <v>549368.5487816007</v>
+        <v>619972.388574949</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.337940365635832e-06</v>
+        <v>3.974343671359713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.734809027777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>496937.5855294848</v>
+        <v>560803.0939460676</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.6613103398803</v>
+        <v>395.9257602892571</v>
       </c>
       <c r="AB5" t="n">
-        <v>485.2632513597591</v>
+        <v>541.7230922395468</v>
       </c>
       <c r="AC5" t="n">
-        <v>438.9504077212338</v>
+        <v>490.0218006293388</v>
       </c>
       <c r="AD5" t="n">
-        <v>354661.3103398803</v>
+        <v>395925.7602892572</v>
       </c>
       <c r="AE5" t="n">
-        <v>485263.2513597591</v>
+        <v>541723.0922395467</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.486073291145485e-06</v>
+        <v>4.226159827012244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.216145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>438950.4077212338</v>
+        <v>490021.8006293388</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>344.7920639703146</v>
+        <v>386.0565139196915</v>
       </c>
       <c r="AB6" t="n">
-        <v>471.7597130764987</v>
+        <v>528.2195539562863</v>
       </c>
       <c r="AC6" t="n">
-        <v>426.7356281793927</v>
+        <v>477.8070210874977</v>
       </c>
       <c r="AD6" t="n">
-        <v>344792.0639703146</v>
+        <v>386056.5139196915</v>
       </c>
       <c r="AE6" t="n">
-        <v>471759.7130764987</v>
+        <v>528219.5539562863</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.517036272398773e-06</v>
+        <v>4.278794843028562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.114149305555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>426735.6281793927</v>
+        <v>477807.0210874976</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.2927482105975</v>
+        <v>531.8562855229499</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.9482624210272</v>
+        <v>727.7092336958233</v>
       </c>
       <c r="AC2" t="n">
-        <v>587.0135510601702</v>
+        <v>658.2576857782173</v>
       </c>
       <c r="AD2" t="n">
-        <v>474292.7482105975</v>
+        <v>531856.2855229499</v>
       </c>
       <c r="AE2" t="n">
-        <v>648948.2624210272</v>
+        <v>727709.2336958232</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03834082724384e-06</v>
+        <v>3.675610864376731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.83984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>587013.5510601703</v>
+        <v>658257.6857782173</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.3233679372993</v>
+        <v>336.6707020358947</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.1791931099436</v>
+        <v>460.6477073886235</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.2231438026255</v>
+        <v>416.6841367185704</v>
       </c>
       <c r="AD3" t="n">
-        <v>298323.3679372993</v>
+        <v>336670.7020358947</v>
       </c>
       <c r="AE3" t="n">
-        <v>408179.1931099436</v>
+        <v>460647.7073886235</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.620418475063672e-06</v>
+        <v>4.72523460621698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.430989583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>369223.1438026255</v>
+        <v>416684.1367185704</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>297.8455198154028</v>
+        <v>336.1928539139982</v>
       </c>
       <c r="AB4" t="n">
-        <v>407.5253802283936</v>
+        <v>459.9938945070734</v>
       </c>
       <c r="AC4" t="n">
-        <v>368.6317299048583</v>
+        <v>416.0927228208033</v>
       </c>
       <c r="AD4" t="n">
-        <v>297845.5198154028</v>
+        <v>336192.8539139982</v>
       </c>
       <c r="AE4" t="n">
-        <v>407525.3802283936</v>
+        <v>459993.8945070734</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.626425573405699e-06</v>
+        <v>4.736066826047062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.413628472222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>368631.7299048583</v>
+        <v>416092.7228208033</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.0468310338054</v>
+        <v>383.3054335311867</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.1623436772052</v>
+        <v>524.4554043996329</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.1496568420665</v>
+        <v>474.4021166815143</v>
       </c>
       <c r="AD2" t="n">
-        <v>337046.8310338054</v>
+        <v>383305.4335311867</v>
       </c>
       <c r="AE2" t="n">
-        <v>461162.3436772052</v>
+        <v>524455.4043996329</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.412176674031972e-06</v>
+        <v>4.500350638987299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.542100694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>417149.6568420664</v>
+        <v>474402.1166815142</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.702078806697</v>
+        <v>326.8753404495066</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.068967925043</v>
+        <v>447.245261525273</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.4139646704581</v>
+        <v>404.5608014779673</v>
       </c>
       <c r="AD3" t="n">
-        <v>280702.078806697</v>
+        <v>326875.3404495066</v>
       </c>
       <c r="AE3" t="n">
-        <v>384068.967925043</v>
+        <v>447245.261525273</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.641685569679404e-06</v>
+        <v>4.928540877413633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.713107638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>347413.9646704581</v>
+        <v>404560.8014779673</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.9432340220808</v>
+        <v>314.8106141166026</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.6624388959756</v>
+        <v>430.7377706984331</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.2371113943402</v>
+        <v>389.6287624072318</v>
       </c>
       <c r="AD2" t="n">
-        <v>278943.2340220808</v>
+        <v>314810.6141166026</v>
       </c>
       <c r="AE2" t="n">
-        <v>381662.4388959756</v>
+        <v>430737.770698433</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613116208703346e-06</v>
+        <v>5.025119373113038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.112413194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>345237.1113943402</v>
+        <v>389628.7624072318</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.1212412055003</v>
+        <v>315.9886213000221</v>
       </c>
       <c r="AB3" t="n">
-        <v>383.2742402943393</v>
+        <v>432.3495720967966</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.6950847294215</v>
+        <v>391.0867357423131</v>
       </c>
       <c r="AD3" t="n">
-        <v>280121.2412055003</v>
+        <v>315988.6213000221</v>
       </c>
       <c r="AE3" t="n">
-        <v>383274.2402943393</v>
+        <v>432349.5720967966</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.61695612252082e-06</v>
+        <v>5.0325036697819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.097222222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>346695.0847294215</v>
+        <v>391086.7357423131</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.7473997136278</v>
+        <v>330.0744593596721</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.7627338724367</v>
+        <v>451.6224371533269</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.2323957625216</v>
+        <v>408.5202256074842</v>
       </c>
       <c r="AD2" t="n">
-        <v>279747.3997136278</v>
+        <v>330074.459359672</v>
       </c>
       <c r="AE2" t="n">
-        <v>382762.7338724367</v>
+        <v>451622.4371533269</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377811655867465e-06</v>
+        <v>4.904472707720653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.74652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>346232.3957625216</v>
+        <v>408520.2256074842</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>644.9909630667165</v>
+        <v>704.3670675418203</v>
       </c>
       <c r="AB2" t="n">
-        <v>882.5050906609204</v>
+        <v>963.7460962926124</v>
       </c>
       <c r="AC2" t="n">
-        <v>798.2800434119154</v>
+        <v>871.7675214885862</v>
       </c>
       <c r="AD2" t="n">
-        <v>644990.9630667166</v>
+        <v>704367.0675418203</v>
       </c>
       <c r="AE2" t="n">
-        <v>882505.0906609204</v>
+        <v>963746.0962926124</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.741559207268654e-06</v>
+        <v>3.059850826534001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>798280.0434119153</v>
+        <v>871767.5214885862</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.2131195954139</v>
+        <v>415.6789085917792</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.0689464130367</v>
+        <v>568.7502211944568</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.2476294220589</v>
+        <v>514.469498329606</v>
       </c>
       <c r="AD3" t="n">
-        <v>366213.1195954139</v>
+        <v>415678.9085917792</v>
       </c>
       <c r="AE3" t="n">
-        <v>501068.9464130367</v>
+        <v>568750.2211944568</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3955425092461e-06</v>
+        <v>4.208873689921748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.921440972222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>453247.6294220589</v>
+        <v>514469.498329606</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.4598936606052</v>
+        <v>354.0155461953342</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.2578994978427</v>
+        <v>484.3796883680877</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.1946894405224</v>
+        <v>438.1511707413989</v>
       </c>
       <c r="AD4" t="n">
-        <v>314459.8936606052</v>
+        <v>354015.5461953342</v>
       </c>
       <c r="AE4" t="n">
-        <v>430257.8994978427</v>
+        <v>484379.6883680877</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.590526237286357e-06</v>
+        <v>4.551452408414105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.248697916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>389194.6894405225</v>
+        <v>438151.1707413989</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.6349762940663</v>
+        <v>354.1906288287954</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.497455281045</v>
+        <v>484.6192441512899</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.4113823559945</v>
+        <v>438.367863656871</v>
       </c>
       <c r="AD5" t="n">
-        <v>314634.9762940663</v>
+        <v>354190.6288287953</v>
       </c>
       <c r="AE5" t="n">
-        <v>430497.455281045</v>
+        <v>484619.2441512899</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.596139405214789e-06</v>
+        <v>4.56131452303737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.231336805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>389411.3823559945</v>
+        <v>438367.863656871</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>927.6030594083287</v>
+        <v>1009.580972733082</v>
       </c>
       <c r="AB2" t="n">
-        <v>1269.187428841259</v>
+        <v>1381.353226462475</v>
       </c>
       <c r="AC2" t="n">
-        <v>1148.057961948393</v>
+        <v>1249.518813270325</v>
       </c>
       <c r="AD2" t="n">
-        <v>927603.0594083287</v>
+        <v>1009580.972733082</v>
       </c>
       <c r="AE2" t="n">
-        <v>1269187.428841259</v>
+        <v>1381353.226462475</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.418208983265113e-06</v>
+        <v>2.424979312776897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.52039930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1148057.961948393</v>
+        <v>1249518.813270325</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.1828048952286</v>
+        <v>525.4723387573064</v>
       </c>
       <c r="AB3" t="n">
-        <v>648.7978331265826</v>
+        <v>718.9744360912156</v>
       </c>
       <c r="AC3" t="n">
-        <v>586.8774785264587</v>
+        <v>650.3565249976281</v>
       </c>
       <c r="AD3" t="n">
-        <v>474182.8048952286</v>
+        <v>525472.3387573063</v>
       </c>
       <c r="AE3" t="n">
-        <v>648797.8331265827</v>
+        <v>718974.4360912156</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.125937494284933e-06</v>
+        <v>3.635116195660142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>586877.4785264587</v>
+        <v>650356.5249976281</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>381.8316245918057</v>
+        <v>433.0358175993118</v>
       </c>
       <c r="AB4" t="n">
-        <v>522.4388739889104</v>
+        <v>592.4987098313459</v>
       </c>
       <c r="AC4" t="n">
-        <v>472.5780411029729</v>
+        <v>535.9514645422033</v>
       </c>
       <c r="AD4" t="n">
-        <v>381831.6245918057</v>
+        <v>433035.8175993118</v>
       </c>
       <c r="AE4" t="n">
-        <v>522438.8739889103</v>
+        <v>592498.7098313458</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390979828862347e-06</v>
+        <v>4.088309050834841e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.61328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>472578.0411029729</v>
+        <v>535951.4645422033</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.8563717270233</v>
+        <v>379.8027474706649</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.638237084967</v>
+        <v>519.6628748040241</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.3892544579298</v>
+        <v>470.0669793841529</v>
       </c>
       <c r="AD5" t="n">
-        <v>338856.3717270233</v>
+        <v>379802.747470665</v>
       </c>
       <c r="AE5" t="n">
-        <v>463638.237084967</v>
+        <v>519662.8748040241</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.529242156638678e-06</v>
+        <v>4.32472222304735e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.142361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>419389.2544579298</v>
+        <v>470066.9793841529</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>338.973531557236</v>
+        <v>379.9199073008776</v>
       </c>
       <c r="AB6" t="n">
-        <v>463.7985403333909</v>
+        <v>519.823178052448</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.5342585893111</v>
+        <v>470.2119835155343</v>
       </c>
       <c r="AD6" t="n">
-        <v>338973.531557236</v>
+        <v>379919.9073008776</v>
       </c>
       <c r="AE6" t="n">
-        <v>463798.5403333909</v>
+        <v>519823.1780524481</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.532753279581523e-06</v>
+        <v>4.330725851991662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.131510416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>419534.2585893111</v>
+        <v>470211.9835155343</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.9767901310273</v>
+        <v>359.8569485436864</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.5462106499005</v>
+        <v>492.372152765587</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.982502124734</v>
+        <v>445.3808455542952</v>
       </c>
       <c r="AD2" t="n">
-        <v>302976.7901310273</v>
+        <v>359856.9485436864</v>
       </c>
       <c r="AE2" t="n">
-        <v>414546.2106499005</v>
+        <v>492372.152765587</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.102277744196981e-06</v>
+        <v>4.50614949489036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.58680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>374982.502124734</v>
+        <v>445380.8455542952</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.8333161282493</v>
+        <v>433.9320982695824</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.9682119561523</v>
+        <v>593.7250405855224</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.6294913764988</v>
+        <v>537.0607560103674</v>
       </c>
       <c r="AD2" t="n">
-        <v>377833.3161282493</v>
+        <v>433932.0982695824</v>
       </c>
       <c r="AE2" t="n">
-        <v>516968.2119561523</v>
+        <v>593725.0405855224</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.276476824448341e-06</v>
+        <v>4.194254966773922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.963107638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>467629.4913764988</v>
+        <v>537060.7560103674</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.8195213238848</v>
+        <v>332.6254003447102</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.0708785426895</v>
+        <v>455.1127471486298</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.7476227659998</v>
+        <v>411.6774253155161</v>
       </c>
       <c r="AD3" t="n">
-        <v>285819.5213238848</v>
+        <v>332625.4003447102</v>
       </c>
       <c r="AE3" t="n">
-        <v>391070.8785426895</v>
+        <v>455112.7471486297</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.640909598612852e-06</v>
+        <v>4.865697766752835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.587239583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>353747.6227659998</v>
+        <v>411677.4253155161</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>530.5971632785715</v>
+        <v>588.7091565233937</v>
       </c>
       <c r="AB2" t="n">
-        <v>725.986447092512</v>
+        <v>805.4978399702811</v>
       </c>
       <c r="AC2" t="n">
-        <v>656.6993195103798</v>
+        <v>728.6222566468355</v>
       </c>
       <c r="AD2" t="n">
-        <v>530597.1632785716</v>
+        <v>588709.1565233937</v>
       </c>
       <c r="AE2" t="n">
-        <v>725986.4470925119</v>
+        <v>805497.8399702811</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.933964394361611e-06</v>
+        <v>3.454886253130825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.29123263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>656699.3195103798</v>
+        <v>728622.2566468355</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.6065475108451</v>
+        <v>355.5469453290262</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.1950459994251</v>
+        <v>486.4750162233668</v>
       </c>
       <c r="AC3" t="n">
-        <v>391.8515188023047</v>
+        <v>440.0465234469814</v>
       </c>
       <c r="AD3" t="n">
-        <v>316606.5475108451</v>
+        <v>355546.9453290263</v>
       </c>
       <c r="AE3" t="n">
-        <v>433195.0459994251</v>
+        <v>486475.0162233668</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.559534458864531e-06</v>
+        <v>4.572421520337606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.530815972222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>391851.5188023048</v>
+        <v>440046.5234469814</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.1746798468708</v>
+        <v>341.9444854644598</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.8169720893958</v>
+        <v>467.8635305384905</v>
       </c>
       <c r="AC4" t="n">
-        <v>375.2274224724599</v>
+        <v>423.2112918344855</v>
       </c>
       <c r="AD4" t="n">
-        <v>303174.6798468708</v>
+        <v>341944.4854644598</v>
       </c>
       <c r="AE4" t="n">
-        <v>414816.9720893958</v>
+        <v>467863.5305384905</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.616486792226064e-06</v>
+        <v>4.674162707604622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.346354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>375227.4224724599</v>
+        <v>423211.2918344855</v>
       </c>
     </row>
   </sheetData>
